--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1844,7 +1844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2423,7 +2423,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>AGAIN</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2901,7 +2904,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2912,7 +2915,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2923,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2934,7 +2937,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2945,7 +2948,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -2967,7 +2970,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,7 +1425,13 @@
     <t>YES</t>
   </si>
   <si>
-    <t>AGAIN</t>
+    <t>DO AGAIN</t>
+  </si>
+  <si>
+    <t>USING BINARY SEARCH</t>
+  </si>
+  <si>
+    <t>SEE TECHNIQUE AGAIN</t>
   </si>
 </sst>
 </file>
@@ -1855,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1924,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -2869,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2891,12 +2897,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2928,8 +2934,11 @@
       <c r="C103" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+      <c r="D103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -2939,8 +2948,11 @@
       <c r="C104" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
+      <c r="D104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -2962,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -2970,10 +2982,13 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D107" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -2981,10 +2996,10 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3006,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1853,7 +1853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1941,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>SEE TECHNIQUE AGAIN</t>
+  </si>
+  <si>
+    <t>REVISE</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1864,7 +1867,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2021,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2095,10 +2098,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+      <c r="D23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1944,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1977,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1988,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2043,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -3347,7 +3347,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -6321,7 +6321,7 @@
         <v>406</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E416" sqref="E416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6244,7 +6244,7 @@
         <v>400</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E416" sqref="E416"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2134,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2211,7 +2211,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -3325,7 +3325,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1966,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1899,9 +1899,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -6376,7 +6374,7 @@
         <v>411</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6176,7 +6176,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6187,7 +6187,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
@@ -6330,7 +6330,7 @@
         <v>407</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">

--- a/DS Cracker.xlsx
+++ b/DS Cracker.xlsx
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C450" sqref="C450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6616,7 +6616,7 @@
         <v>433</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
